--- a/biology/Médecine/Fraise_dentaire/Fraise_dentaire.xlsx
+++ b/biology/Médecine/Fraise_dentaire/Fraise_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fraises dentaires font partie des instruments standard pour la technique de préparation dentaire et elles sont disponibles en formes et versions différentes. 
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1871 des ustensiles utilisables pour les préparations dentaires existent. Vers la fin du XIXe siècle, la production à l’échelle industrielle des instruments dentaires rotatifs a commencé.
 Initialement on produisait fraises en acier, après pointes abrasives au carbure de silicium liées avec la céramique. Avec ces instruments on travaillait soit l'émail soit la dentine. Le développement de la turbine pour une utilisation dentaire (Borden 1956/57) permettait un nombre de tours et des vitesses de travail extrêmement élevées. Il fallait pour ça des instruments faits en matériaux plus résistants à l’usure. Depuis 1956 on produit les fraises en carbure de tungstène. Depuis 1958 on produit les pointes diamantées à liant galvanique.
@@ -543,7 +557,9 @@
           <t>Types de fraise dentaire actuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd’hui les dentistes sont équipés de :
 fraises et grandes fraises en acier, en acier inoxydable et carbure de tungstène ;
@@ -579,7 +595,9 @@
           <t>Caractéristiques et données techniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les instruments rotatifs sont « outils pour le travail pour ablation de copeaux ». La différence entre instruments pour fraiser et instruments abrasifs.[pas clair]
 Le déroulement du travail avec ablation de copeaux, selon les normes DIN 8580, est subdivisé en deux parties :
@@ -612,7 +630,9 @@
           <t>Instruments avec tranchantes géométriquement déterminées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraises, fraises pour finir et grandes fraises.
 </t>
@@ -643,13 +663,15 @@
           <t>Matériaux pour tranchants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Acier inoxydable (RFS), acier lié au chrome.
 Acier pour outils (WS), acier lié au tungstène - vanadium.
 Acier ultra rapide (HSS), acier lié au chrome - molybdène - tungstène.
 Carbure de tungstène (HM), métal dur sintérisé sur la base de carbure de tungstène - cobalt. On utilise exclusivement du carbure de tungstène à grain fin, recomprimé isostatiquement à chaud.
-Disteno dentaire, instruments en carbure de tungstène auquel des grains de diamant sont déposés. Le brevet est d’une entreprise italienne[1].</t>
+Disteno dentaire, instruments en carbure de tungstène auquel des grains de diamant sont déposés. Le brevet est d’une entreprise italienne.</t>
         </is>
       </c>
     </row>
@@ -677,7 +699,9 @@
           <t>Alternatives possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En alternative à la fraise dentaire on peut citer les lasers dentaires, par exemple de type Erbium ou YAP. Ils sont très coûteux. On ne les trouve que rarement en cabinet dentaire.
 </t>
